--- a/SSR/update_SSR.xlsx
+++ b/SSR/update_SSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ava\Code\DomainModelExtractor\SSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5A887-D67A-4CE8-B867-49E666E7C425}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C9720-02B6-45C5-968C-3B7DAD6CE243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
   <si>
     <t>Rule</t>
   </si>
@@ -203,9 +203,6 @@
     <t>SVDOPO</t>
   </si>
   <si>
-    <t>nsubj(A,B), dobj(A,C), prep(A,D), pobj(D,E)</t>
-  </si>
-  <si>
     <t>The system sends the message to the customer.</t>
   </si>
   <si>
@@ -724,17 +721,102 @@
   </si>
   <si>
     <r>
+      <t>nsubj(A,B), dobj(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A,C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), advmod(D,E),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(D,F), xcomp(A,D)</t>
+    </r>
+  </si>
+  <si>
+    <t>nsubj(A,B), dobj(A,C), advmod(D,E), nsubj(D,F)</t>
+  </si>
+  <si>
+    <t>nsubj(A,B), dobj(A,C), advmod(A,D)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nsubj(A,B), advmod(C,D), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C,E), xcomp(A,C)</t>
+    </r>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">nsubj(A,B), </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prep(A,C)</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nummod</t>
     </r>
     <r>
       <rPr>
@@ -745,7 +827,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>(D,E),</t>
     </r>
     <r>
       <rPr>
@@ -755,18 +837,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nummod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,E),</t>
+      <t xml:space="preserve"> case(D,C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nsubjpass(A,B), auxpass(A,C), </t>
     </r>
     <r>
       <rPr>
@@ -776,33 +852,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> case(D,C)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubjpass(A,B), auxpass(A,C), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prep(A,D)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>case(E,D)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nsubjpass(A,B), aux(A,C), auxpass(A,D), </t>
     </r>
     <r>
       <rPr>
@@ -812,33 +867,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case(E,D)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubjpass(A,B), aux(A,C), auxpass(A,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prep(A,E)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>case(F,E)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nsubj(A,B), </t>
     </r>
     <r>
       <rPr>
@@ -848,130 +882,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case(F,E)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prep(A,C)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>case(D,C)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>nsubj(A,B), dobj(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A,C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), advmod(D,E),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,F), xcomp(A,D)</t>
-    </r>
-  </si>
-  <si>
-    <t>nsubj(A,B), dobj(A,C), advmod(D,E), nsubj(D,F)</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), dobj(A,C), advmod(A,D)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), advmod(C,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,E), xcomp(A,C)</t>
-    </r>
+    <t>prep,pobj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,13 +1063,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1857,7 +1772,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1909,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1923,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1937,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1951,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1965,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1979,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1993,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -2010,7 +1925,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -2061,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -2075,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -2089,7 +2004,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
@@ -2117,253 +2032,253 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>102</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>109</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>110</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>117</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>121</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>122</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2374,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2389,392 +2304,410 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/SSR/update_SSR.xlsx
+++ b/SSR/update_SSR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ava\Code\DomainModelExtractor\SSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bo/Documents/projects/DomainModelExtractor/SSR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C9720-02B6-45C5-968C-3B7DAD6CE243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BD7E6-122C-0445-8E3E-CD84DCAFCE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="22140" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update_SSR" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>POS-tags</t>
   </si>
   <si>
-    <t>start word</t>
-  </si>
-  <si>
     <t>sentence example</t>
   </si>
   <si>
@@ -887,13 +884,16 @@
   </si>
   <si>
     <t>prep,pobj</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,17 +1772,17 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="55.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1796,489 +1796,489 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>153</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>154</v>
       </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
         <v>155</v>
       </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>108</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>109</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>112</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>113</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>116</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>117</v>
       </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>120</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2295,419 +2295,419 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/SSR/update_SSR.xlsx
+++ b/SSR/update_SSR.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bo/Documents/projects/DomainModelExtractor/SSR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BD7E6-122C-0445-8E3E-CD84DCAFCE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB83B9-D088-AB40-B1F4-58CECDE53207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="22140" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="800" windowWidth="13680" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update_SSR" sheetId="1" r:id="rId1"/>
     <sheet name="compare" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>Rule</t>
   </si>
@@ -41,270 +49,81 @@
     <t>SSR1</t>
   </si>
   <si>
-    <t>SVIODO</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), iobj(A,C), dobj(A,D)</t>
-  </si>
-  <si>
-    <t>The system sends the user an email.</t>
-  </si>
-  <si>
     <t>SSR2</t>
   </si>
   <si>
-    <t>SVDOThatClause</t>
-  </si>
-  <si>
-    <t>The system informs the user that the battery is full</t>
-  </si>
-  <si>
     <t>SSR3</t>
   </si>
   <si>
-    <t>SVThatClause</t>
-  </si>
-  <si>
-    <t>The system validates that the password is correct</t>
-  </si>
-  <si>
     <t>SSR4</t>
   </si>
   <si>
-    <t>SVDONotToInf</t>
-  </si>
-  <si>
-    <t>The system warns the user not to restart the system.</t>
-  </si>
-  <si>
     <t>SSR5</t>
   </si>
   <si>
-    <t>SVNotToInf</t>
-  </si>
-  <si>
-    <t>The customer selects not to ﬁll the tank</t>
-  </si>
-  <si>
     <t>SSR6</t>
   </si>
   <si>
-    <t>SVDOtobeComp</t>
-  </si>
-  <si>
-    <t>The system marks the errors to be red.</t>
-  </si>
-  <si>
     <t>SSR7</t>
   </si>
   <si>
-    <t>SVDOToInf</t>
-  </si>
-  <si>
-    <t>The system commands the motor to start.</t>
-  </si>
-  <si>
     <t>SSR8</t>
   </si>
   <si>
-    <t>SVDOPresentPart</t>
-  </si>
-  <si>
-    <t>D==VBG</t>
-  </si>
-  <si>
-    <t>The system keeps the user waiting.</t>
-  </si>
-  <si>
     <t>SSR9</t>
   </si>
   <si>
-    <t>SVDOPastPart</t>
-  </si>
-  <si>
-    <t>D==VBN</t>
-  </si>
-  <si>
-    <t>The system validates the record entered by the customer.</t>
-  </si>
-  <si>
     <t>SSR10</t>
   </si>
   <si>
-    <t>SVDOAdj</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), nsubj(C,D), xcomp(A,C)</t>
-  </si>
-  <si>
-    <t>C==JJ</t>
-  </si>
-  <si>
-    <t>The system keeps the door open</t>
-  </si>
-  <si>
     <t>SSR11</t>
   </si>
   <si>
-    <t>SVDONoun</t>
-  </si>
-  <si>
-    <t>C==NN</t>
-  </si>
-  <si>
-    <t>The system makes the user an administrator.</t>
-  </si>
-  <si>
     <t>SSR12</t>
   </si>
   <si>
-    <t>SVDOConjToInf</t>
-  </si>
-  <si>
-    <t>The system tells the user where to go.</t>
-  </si>
-  <si>
     <t>SSR13</t>
   </si>
   <si>
-    <t>SVDOConjClause</t>
-  </si>
-  <si>
-    <t>The system stops the motor when the tank is full</t>
-  </si>
-  <si>
     <t>SSR14</t>
   </si>
   <si>
-    <t>SVDOAdverbial</t>
-  </si>
-  <si>
-    <t>The server responds the query quickly</t>
-  </si>
-  <si>
     <t>SSR15</t>
   </si>
   <si>
-    <t>SAuxVDO</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), aux(A,C), dobj(A,D)</t>
-  </si>
-  <si>
-    <t>The system will eject the ATM card.</t>
-  </si>
-  <si>
     <t>SSR16</t>
   </si>
   <si>
-    <t>SVDOPO</t>
-  </si>
-  <si>
-    <t>The system sends the message to the customer.</t>
-  </si>
-  <si>
     <t>SSR17</t>
   </si>
   <si>
-    <t>SVConjToInf</t>
-  </si>
-  <si>
-    <t>The system guides where to go.</t>
-  </si>
-  <si>
     <t>SSR18</t>
   </si>
   <si>
-    <t>SVConjClause</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), advmod(C,D), nsubj(C,E), advcl(A,C)</t>
-  </si>
-  <si>
-    <t>The motor stops when the tank is full.</t>
-  </si>
-  <si>
     <t>SSR19</t>
   </si>
   <si>
-    <t>SVToInf</t>
-  </si>
-  <si>
-    <t>The system starts to ﬁll the tank.</t>
-  </si>
-  <si>
     <t>SSR20</t>
   </si>
   <si>
-    <t>SVGerund</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), xcomp(A,C)</t>
-  </si>
-  <si>
-    <t>The printer starts printing the document</t>
-  </si>
-  <si>
     <t>SSR21</t>
   </si>
   <si>
-    <t>SVAdverbialAdjunct</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), advmod(A,C)</t>
-  </si>
-  <si>
-    <t>The elevator moves up or down.</t>
-  </si>
-  <si>
     <t>SSR22</t>
   </si>
   <si>
-    <t>SVPredicative</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), cop(A,C)</t>
-  </si>
-  <si>
-    <t>The customer is employee.</t>
-  </si>
-  <si>
     <t>SSR23</t>
   </si>
   <si>
-    <t>SVForComp</t>
-  </si>
-  <si>
-    <t>The system waits for 5 seconds.</t>
-  </si>
-  <si>
     <t>SSR24</t>
   </si>
   <si>
-    <t>SVPassPO</t>
-  </si>
-  <si>
-    <t>The ATM card is ejected by the system.</t>
-  </si>
-  <si>
     <t>SSR25</t>
   </si>
   <si>
-    <t>SAuxVPassPO</t>
-  </si>
-  <si>
-    <t>The ATM card will be ejected by the system.</t>
-  </si>
-  <si>
     <t>SSR26</t>
   </si>
   <si>
-    <t>SVPO</t>
-  </si>
-  <si>
-    <t>The system prompts for password.</t>
-  </si>
-  <si>
     <t>SSR27</t>
   </si>
   <si>
@@ -314,81 +133,24 @@
     <t>nsubj(A,B), dobj(A,C)</t>
   </si>
   <si>
-    <t>ATM customer enters the withdrawal amount.</t>
-  </si>
-  <si>
     <t>SSR28</t>
   </si>
   <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>mark(A,B)</t>
-  </si>
-  <si>
-    <t>If the ATM card is valid.</t>
-  </si>
-  <si>
     <t>SSR29</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>nsubj(A,B)</t>
-  </si>
-  <si>
-    <t>The system restarts</t>
-  </si>
-  <si>
     <t>SSR30</t>
   </si>
   <si>
-    <t>INCLUDE</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>Include UCS Validate PIN</t>
-  </si>
-  <si>
     <t>SSR31</t>
   </si>
   <si>
-    <t>EXTEND</t>
-  </si>
-  <si>
-    <t>Extend</t>
-  </si>
-  <si>
-    <t>Extend Handle Card Jam</t>
-  </si>
-  <si>
     <t>SSR32</t>
   </si>
   <si>
-    <t>RESUME</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Resume M2.</t>
-  </si>
-  <si>
     <t>SSR33</t>
   </si>
   <si>
-    <t>REPEAT</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>Repeat M4-M8.</t>
-  </si>
-  <si>
     <t>SSR34</t>
   </si>
   <si>
@@ -401,90 +163,12 @@
     <t>mark</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), dobj(A,C), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,E), nsubj(D,F)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,D), nsubj(C,E)</t>
-    </r>
-  </si>
-  <si>
     <t>complm</t>
   </si>
   <si>
     <t>aux</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), neg(C,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,E), xcomp(A,C), dobj(C,F)</t>
-    </r>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -494,153 +178,7 @@
     <t>infmod</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), dobj(A,C), neg(D,E), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(D,F), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,D)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), nsubj(C,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,E), cop(C,F), xcomp(A,C)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), dobj(A,C), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,E),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> acl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,D)</t>
-    </r>
-  </si>
-  <si>
     <t>partmod</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), dobj(A,C), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,D)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">doesn't find prep,  new td: case, nmod, punct </t>
@@ -673,32 +211,6 @@
     <t>doesn't find prep, pobj</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,D), xcomp(A,C)</t>
-    </r>
-  </si>
-  <si>
     <t>nummod</t>
   </si>
   <si>
@@ -717,176 +229,37 @@
     <t>new td: punct, nmod, doesn't find prep</t>
   </si>
   <si>
-    <r>
-      <t>nsubj(A,B), dobj(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A,C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), advmod(D,E),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,F), xcomp(A,D)</t>
-    </r>
-  </si>
-  <si>
-    <t>nsubj(A,B), dobj(A,C), advmod(D,E), nsubj(D,F)</t>
-  </si>
-  <si>
-    <t>nsubj(A,B), dobj(A,C), advmod(A,D)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), advmod(C,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(C,E), xcomp(A,C)</t>
-    </r>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
     <t>prep</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nummod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(D,E),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> case(D,C)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubjpass(A,B), auxpass(A,C), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case(E,D)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubjpass(A,B), aux(A,C), auxpass(A,D), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case(F,E)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nsubj(A,B), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case(D,C)</t>
-    </r>
-  </si>
-  <si>
     <t>prep,pobj</t>
   </si>
   <si>
     <t>Keywords</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>﻿Subject-Verb-﻿DirectObject</t>
+  </si>
+  <si>
+    <t>B==NN*,C==NN*</t>
+  </si>
+  <si>
+    <t>SVThat</t>
+  </si>
+  <si>
+    <t>﻿Subject-Verb-ThatClause</t>
+  </si>
+  <si>
+    <t>nsubj(A,B), mark(C,D), nsubj(C,E)</t>
+  </si>
+  <si>
+    <t>B==NN*,E==NN*</t>
   </si>
 </sst>
 </file>
@@ -1409,11 +782,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1769,20 +1143,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,496 +1170,56 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>163</v>
-      </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>122</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,22 +1249,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2332,382 +1272,382 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
